--- a/doc/icaps10/solved.xlsx
+++ b/doc/icaps10/solved.xlsx
@@ -20,7 +20,55 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="70">
+  <si>
+    <t>plot/bridges3_0.5.dat.solved</t>
+  </si>
+  <si>
+    <t>plot/bridges3_0.75.dat.solved</t>
+  </si>
+  <si>
+    <t>plot/bridges3_1.0.dat.solved</t>
+  </si>
+  <si>
+    <t>plot/bridges3.dat.solved</t>
+  </si>
+  <si>
+    <t>plot/bridges.dat.solved</t>
+  </si>
+  <si>
+    <t>plot/hobonav_0.25.dat.solved</t>
+  </si>
+  <si>
+    <t>plot/hobonav_0.5.dat.solved</t>
+  </si>
+  <si>
+    <t>plot/hobonav_0.75.dat.solved</t>
+  </si>
+  <si>
+    <t>plot/hobonav_1.0.dat.solved</t>
+  </si>
+  <si>
+    <t>plot/hobonav.dat.solved</t>
+  </si>
+  <si>
+    <t>plot/parcprinter.dat.solved</t>
+  </si>
+  <si>
+    <t>plot/pathways_0.25.dat.solved</t>
+  </si>
+  <si>
+    <t>plot/pathways_0.5.dat.solved</t>
+  </si>
+  <si>
+    <t>plot/pathways_0.75.dat.solved</t>
+  </si>
+  <si>
+    <t>plot/pathways_1.0.dat.solved</t>
+  </si>
+  <si>
+    <t>plot/pathways.dat.solved</t>
+  </si>
   <si>
     <t>\caption{\label{tab:solved} Instances Solved By Domain}</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,9 +86,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Bridges1 0.0 </t>
-  </si>
-  <si>
     <t xml:space="preserve">Bridges1 0.25 </t>
   </si>
   <si>
@@ -53,9 +98,6 @@
     <t xml:space="preserve">Bridges1 1.0 </t>
   </si>
   <si>
-    <t xml:space="preserve">Bridges2 0.0 </t>
-  </si>
-  <si>
     <t xml:space="preserve">Bridges2 0.25 </t>
   </si>
   <si>
@@ -68,12 +110,6 @@
     <t xml:space="preserve">Bridges2 1.0 </t>
   </si>
   <si>
-    <t xml:space="preserve">Bridges2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bridges3 0.0 </t>
-  </si>
-  <si>
     <t xml:space="preserve">Bridges3 0.25 </t>
   </si>
   <si>
@@ -86,9 +122,6 @@
     <t xml:space="preserve">Bridges3 1.0 </t>
   </si>
   <si>
-    <t xml:space="preserve">Bridges3 </t>
-  </si>
-  <si>
     <t xml:space="preserve">Bridges </t>
   </si>
   <si>
@@ -105,12 +138,6 @@
   </si>
   <si>
     <t xml:space="preserve">Barter </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pathways 0.01 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pathways 0.0 </t>
   </si>
   <si>
     <t xml:space="preserve">Pathways 0.25 </t>
@@ -186,6 +213,42 @@
   <si>
     <t>\\ \hline</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plot/alldom.dat.solved</t>
+  </si>
+  <si>
+    <t>plot/blindnav.dat.solved</t>
+  </si>
+  <si>
+    <t>plot/bridges1_0.25.dat.solved</t>
+  </si>
+  <si>
+    <t>plot/bridges1_0.5.dat.solved</t>
+  </si>
+  <si>
+    <t>plot/bridges1_0.75.dat.solved</t>
+  </si>
+  <si>
+    <t>plot/bridges1_1.0.dat.solved</t>
+  </si>
+  <si>
+    <t>plot/bridges2_0.25.dat.solved</t>
+  </si>
+  <si>
+    <t>plot/bridges2_0.5.dat.solved</t>
+  </si>
+  <si>
+    <t>plot/bridges2_0.75.dat.solved</t>
+  </si>
+  <si>
+    <t>plot/bridges2_1.0.dat.solved</t>
+  </si>
+  <si>
+    <t>plot/bridges2.dat.solved</t>
+  </si>
+  <si>
+    <t>plot/bridges3_0.25.dat.solved</t>
   </si>
 </sst>
 </file>
@@ -559,17 +622,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A2:F33"/>
+  <dimension ref="A2:M57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="B2">
         <v>169</v>
@@ -586,96 +649,117 @@
       <c r="F2">
         <v>140</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>40</v>
-      </c>
-      <c r="C3">
-        <v>40</v>
-      </c>
-      <c r="D3">
-        <v>40</v>
-      </c>
-      <c r="E3">
-        <v>40</v>
-      </c>
-      <c r="F3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="I3">
+        <v>1713</v>
+      </c>
+      <c r="J3">
+        <v>1136</v>
+      </c>
+      <c r="K3">
+        <v>1090</v>
+      </c>
+      <c r="L3">
+        <v>1081</v>
+      </c>
+      <c r="M3">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B4">
         <v>40</v>
       </c>
       <c r="C4">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D4">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="E4">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="F4">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>40</v>
+      </c>
+      <c r="I4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B5">
         <v>40</v>
       </c>
       <c r="C5">
+        <v>35</v>
+      </c>
+      <c r="D5">
+        <v>34</v>
+      </c>
+      <c r="E5">
+        <v>34</v>
+      </c>
+      <c r="F5">
+        <v>40</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="D5">
-        <v>22</v>
-      </c>
-      <c r="E5">
-        <v>22</v>
-      </c>
-      <c r="F5">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
       <c r="B6">
         <v>40</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E6">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F6">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>32</v>
+      </c>
+      <c r="I6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B7">
         <v>40</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D7">
         <v>20</v>
@@ -687,249 +771,191 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>40</v>
-      </c>
-      <c r="C8">
-        <v>40</v>
-      </c>
-      <c r="D8">
-        <v>40</v>
-      </c>
-      <c r="E8">
-        <v>40</v>
-      </c>
-      <c r="F8">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+    <row r="8" spans="1:13">
+      <c r="I8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B9">
         <v>40</v>
       </c>
       <c r="C9">
+        <v>39</v>
+      </c>
+      <c r="D9">
+        <v>39</v>
+      </c>
+      <c r="E9">
+        <v>39</v>
+      </c>
+      <c r="F9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10">
+        <v>40</v>
+      </c>
+      <c r="C10">
+        <v>34</v>
+      </c>
+      <c r="D10">
+        <v>35</v>
+      </c>
+      <c r="E10">
+        <v>33</v>
+      </c>
+      <c r="F10">
+        <v>40</v>
+      </c>
+      <c r="I10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
         <v>26</v>
       </c>
-      <c r="D9">
-        <v>26</v>
-      </c>
-      <c r="E9">
-        <v>26</v>
-      </c>
-      <c r="F9">
+      <c r="B11">
+        <v>40</v>
+      </c>
+      <c r="C11">
+        <v>31</v>
+      </c>
+      <c r="D11">
+        <v>29</v>
+      </c>
+      <c r="E11">
+        <v>30</v>
+      </c>
+      <c r="F11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12">
+        <v>40</v>
+      </c>
+      <c r="C12">
+        <v>30</v>
+      </c>
+      <c r="D12">
+        <v>29</v>
+      </c>
+      <c r="E12">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>40</v>
-      </c>
-      <c r="C10">
-        <v>22</v>
-      </c>
-      <c r="D10">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>22</v>
-      </c>
-      <c r="F10">
+      <c r="F12">
+        <v>30</v>
+      </c>
+      <c r="I12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="I14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15">
+        <v>40</v>
+      </c>
+      <c r="C15">
+        <v>40</v>
+      </c>
+      <c r="D15">
+        <v>40</v>
+      </c>
+      <c r="E15">
+        <v>40</v>
+      </c>
+      <c r="F15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11">
-        <v>40</v>
-      </c>
-      <c r="C11">
-        <v>21</v>
-      </c>
-      <c r="D11">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>21</v>
-      </c>
-      <c r="F11">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12">
-        <v>40</v>
-      </c>
-      <c r="C12">
-        <v>20</v>
-      </c>
-      <c r="D12">
-        <v>20</v>
-      </c>
-      <c r="E12">
-        <v>20</v>
-      </c>
-      <c r="F12">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13">
-        <v>50</v>
-      </c>
-      <c r="C13">
-        <v>40</v>
-      </c>
-      <c r="D13">
-        <v>40</v>
-      </c>
-      <c r="E13">
-        <v>40</v>
-      </c>
-      <c r="F13">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14">
-        <v>40</v>
-      </c>
-      <c r="C14">
-        <v>40</v>
-      </c>
-      <c r="D14">
-        <v>40</v>
-      </c>
-      <c r="E14">
-        <v>40</v>
-      </c>
-      <c r="F14">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15">
-        <v>40</v>
-      </c>
-      <c r="C15">
+      <c r="B16">
+        <v>40</v>
+      </c>
+      <c r="C16">
+        <v>40</v>
+      </c>
+      <c r="D16">
+        <v>40</v>
+      </c>
+      <c r="E16">
+        <v>40</v>
+      </c>
+      <c r="F16">
+        <v>40</v>
+      </c>
+      <c r="I16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17">
+        <v>40</v>
+      </c>
+      <c r="C17">
+        <v>38</v>
+      </c>
+      <c r="D17">
+        <v>38</v>
+      </c>
+      <c r="E17">
+        <v>38</v>
+      </c>
+      <c r="F17">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18">
+        <v>40</v>
+      </c>
+      <c r="C18">
+        <v>37</v>
+      </c>
+      <c r="D18">
+        <v>37</v>
+      </c>
+      <c r="E18">
+        <v>36</v>
+      </c>
+      <c r="F18">
+        <v>36</v>
+      </c>
+      <c r="I18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" t="s">
         <v>32</v>
-      </c>
-      <c r="D15">
-        <v>32</v>
-      </c>
-      <c r="E15">
-        <v>32</v>
-      </c>
-      <c r="F15">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16">
-        <v>40</v>
-      </c>
-      <c r="C16">
-        <v>36</v>
-      </c>
-      <c r="D16">
-        <v>36</v>
-      </c>
-      <c r="E16">
-        <v>36</v>
-      </c>
-      <c r="F16">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17">
-        <v>40</v>
-      </c>
-      <c r="C17">
-        <v>28</v>
-      </c>
-      <c r="D17">
-        <v>28</v>
-      </c>
-      <c r="E17">
-        <v>28</v>
-      </c>
-      <c r="F17">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18">
-        <v>40</v>
-      </c>
-      <c r="C18">
-        <v>30</v>
-      </c>
-      <c r="D18">
-        <v>30</v>
-      </c>
-      <c r="E18">
-        <v>30</v>
-      </c>
-      <c r="F18">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19">
-        <v>120</v>
-      </c>
-      <c r="C19">
-        <v>69</v>
-      </c>
-      <c r="D19">
-        <v>69</v>
-      </c>
-      <c r="E19">
-        <v>69</v>
-      </c>
-      <c r="F19">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
-        <v>21</v>
       </c>
       <c r="B20">
         <v>600</v>
@@ -946,10 +972,13 @@
       <c r="F20">
         <v>481</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="I20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="B21">
         <v>120</v>
@@ -967,9 +996,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B22">
         <v>120</v>
@@ -986,10 +1015,13 @@
       <c r="F22">
         <v>117</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="I22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B23">
         <v>120</v>
@@ -1006,10 +1038,25 @@
       <c r="F23">
         <v>111</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="I23">
+        <v>50</v>
+      </c>
+      <c r="J23">
+        <v>40</v>
+      </c>
+      <c r="K23">
+        <v>40</v>
+      </c>
+      <c r="L23">
+        <v>40</v>
+      </c>
+      <c r="M23">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B24">
         <v>12</v>
@@ -1026,10 +1073,13 @@
       <c r="F24">
         <v>11</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="I24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B25">
         <v>384</v>
@@ -1047,49 +1097,14 @@
         <v>371</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26">
-        <v>140</v>
-      </c>
-      <c r="C26">
-        <v>50</v>
-      </c>
-      <c r="D26">
-        <v>50</v>
-      </c>
-      <c r="E26">
-        <v>50</v>
-      </c>
-      <c r="F26">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27">
-        <v>130</v>
-      </c>
-      <c r="C27">
-        <v>40</v>
-      </c>
-      <c r="D27">
-        <v>40</v>
-      </c>
-      <c r="E27">
-        <v>40</v>
-      </c>
-      <c r="F27">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+    <row r="26" spans="1:13">
+      <c r="I26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B28">
         <v>140</v>
@@ -1106,10 +1121,13 @@
       <c r="F28">
         <v>60</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="I28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B29">
         <v>140</v>
@@ -1127,9 +1145,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B30">
         <v>150</v>
@@ -1146,10 +1164,13 @@
       <c r="F30">
         <v>60</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="I30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B31">
         <v>170</v>
@@ -1167,9 +1188,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B32">
         <v>870</v>
@@ -1186,10 +1207,13 @@
       <c r="F32">
         <v>340</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="I32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B33">
         <v>2023</v>
@@ -1206,8 +1230,288 @@
       <c r="F33">
         <v>1332</v>
       </c>
+      <c r="I33">
+        <v>120</v>
+      </c>
+      <c r="J33">
+        <v>69</v>
+      </c>
+      <c r="K33">
+        <v>69</v>
+      </c>
+      <c r="L33">
+        <v>69</v>
+      </c>
+      <c r="M33">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="I34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="I35">
+        <v>600</v>
+      </c>
+      <c r="J35">
+        <v>545</v>
+      </c>
+      <c r="K35">
+        <v>530</v>
+      </c>
+      <c r="L35">
+        <v>527</v>
+      </c>
+      <c r="M35">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="I36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="I37">
+        <v>120</v>
+      </c>
+      <c r="J37">
+        <v>120</v>
+      </c>
+      <c r="K37">
+        <v>120</v>
+      </c>
+      <c r="L37">
+        <v>120</v>
+      </c>
+      <c r="M37">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="I38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="I39">
+        <v>120</v>
+      </c>
+      <c r="J39">
+        <v>120</v>
+      </c>
+      <c r="K39">
+        <v>120</v>
+      </c>
+      <c r="L39">
+        <v>120</v>
+      </c>
+      <c r="M39">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="I40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="I41">
+        <v>120</v>
+      </c>
+      <c r="J41">
+        <v>120</v>
+      </c>
+      <c r="K41">
+        <v>119</v>
+      </c>
+      <c r="L41">
+        <v>120</v>
+      </c>
+      <c r="M41">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="I42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="I43">
+        <v>12</v>
+      </c>
+      <c r="J43">
+        <v>12</v>
+      </c>
+      <c r="K43">
+        <v>12</v>
+      </c>
+      <c r="L43">
+        <v>12</v>
+      </c>
+      <c r="M43">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="I44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="I45">
+        <v>384</v>
+      </c>
+      <c r="J45">
+        <v>384</v>
+      </c>
+      <c r="K45">
+        <v>383</v>
+      </c>
+      <c r="L45">
+        <v>384</v>
+      </c>
+      <c r="M45">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="I46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="I47">
+        <v>169</v>
+      </c>
+      <c r="J47">
+        <v>97</v>
+      </c>
+      <c r="K47">
+        <v>97</v>
+      </c>
+      <c r="L47">
+        <v>100</v>
+      </c>
+      <c r="M47">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="I48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="9:13">
+      <c r="I49">
+        <v>140</v>
+      </c>
+      <c r="J49">
+        <v>50</v>
+      </c>
+      <c r="K49">
+        <v>40</v>
+      </c>
+      <c r="L49">
+        <v>40</v>
+      </c>
+      <c r="M49">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="9:13">
+      <c r="I50" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="9:13">
+      <c r="I51">
+        <v>140</v>
+      </c>
+      <c r="J51">
+        <v>70</v>
+      </c>
+      <c r="K51">
+        <v>60</v>
+      </c>
+      <c r="L51">
+        <v>50</v>
+      </c>
+      <c r="M51">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="9:13">
+      <c r="I52" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="9:13">
+      <c r="I53">
+        <v>150</v>
+      </c>
+      <c r="J53">
+        <v>60</v>
+      </c>
+      <c r="K53">
+        <v>40</v>
+      </c>
+      <c r="L53">
+        <v>40</v>
+      </c>
+      <c r="M53">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="9:13">
+      <c r="I54" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="9:13">
+      <c r="I55">
+        <v>170</v>
+      </c>
+      <c r="J55">
+        <v>50</v>
+      </c>
+      <c r="K55">
+        <v>60</v>
+      </c>
+      <c r="L55">
+        <v>60</v>
+      </c>
+      <c r="M55">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="9:13">
+      <c r="I56" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="9:13">
+      <c r="I57">
+        <v>870</v>
+      </c>
+      <c r="J57">
+        <v>320</v>
+      </c>
+      <c r="K57">
+        <v>290</v>
+      </c>
+      <c r="L57">
+        <v>280</v>
+      </c>
+      <c r="M57">
+        <v>340</v>
+      </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -1221,68 +1525,68 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:X37"/>
+  <dimension ref="A1:X32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="W41" sqref="A1:W41"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="W33" sqref="A1:W33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:24">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="J4" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="L4" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="N4" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="P4" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="R4" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="T4" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="V4" t="s">
+        <v>57</v>
+      </c>
+      <c r="W4" t="s">
         <v>48</v>
-      </c>
-      <c r="W4" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -1291,7 +1595,7 @@
         <v xml:space="preserve">PARCprinter </v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C5" t="str">
         <f>IF(D5=$X5,"{\bf", "")</f>
@@ -1306,7 +1610,7 @@
         <v/>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G5" t="str">
         <f>IF(H5=$X5,"{\bf", "")</f>
@@ -1321,7 +1625,7 @@
         <v/>
       </c>
       <c r="J5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="K5" t="str">
         <f>IF(L5=$X5,"{\bf", "")</f>
@@ -1336,7 +1640,7 @@
         <v/>
       </c>
       <c r="N5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="O5" t="str">
         <f>IF(P5=$X5,"{\bf", "")</f>
@@ -1351,7 +1655,7 @@
         <v/>
       </c>
       <c r="R5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="S5" t="str">
         <f>IF(T5=$X5,"{\bf", "")</f>
@@ -1366,10 +1670,10 @@
         <v>}</v>
       </c>
       <c r="V5" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="W5" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="X5">
         <f>MAX(H5,L5,P5,T5)</f>
@@ -1378,470 +1682,470 @@
     </row>
     <row r="6" spans="1:24">
       <c r="A6" t="str">
-        <f>Sheet1!A3</f>
-        <v xml:space="preserve">Bridges1 0.0 </v>
+        <f>Sheet1!A4</f>
+        <v xml:space="preserve">Bridges1 0.25 </v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D6">
-        <f>Sheet1!B3</f>
+        <f>Sheet1!B4</f>
         <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G6" t="str">
-        <f t="shared" ref="G6:G34" si="0">IF(H6=$X6,"{\bf", "")</f>
+        <f t="shared" ref="G6:G29" si="0">IF(H6=$X6,"{\bf", "")</f>
         <v>{\bf</v>
       </c>
       <c r="H6">
-        <f>Sheet1!C3</f>
+        <f>Sheet1!C4</f>
         <v>40</v>
       </c>
       <c r="I6" t="str">
-        <f t="shared" ref="I6:I34" si="1">IF(H6=$X6,"}", "")</f>
+        <f t="shared" ref="I6:I29" si="1">IF(H6=$X6,"}", "")</f>
         <v>}</v>
       </c>
       <c r="J6" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="K6" t="str">
-        <f t="shared" ref="K6:K34" si="2">IF(L6=$X6,"{\bf", "")</f>
-        <v>{\bf</v>
+        <f t="shared" ref="K6:K29" si="2">IF(L6=$X6,"{\bf", "")</f>
+        <v/>
       </c>
       <c r="L6">
-        <f>Sheet1!D3</f>
-        <v>40</v>
+        <f>Sheet1!D4</f>
+        <v>39</v>
       </c>
       <c r="M6" t="str">
-        <f t="shared" ref="M6:M34" si="3">IF(L6=$X6,"}", "")</f>
-        <v>}</v>
+        <f t="shared" ref="M6:M29" si="3">IF(L6=$X6,"}", "")</f>
+        <v/>
       </c>
       <c r="N6" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="O6" t="str">
-        <f t="shared" ref="O6:O34" si="4">IF(P6=$X6,"{\bf", "")</f>
-        <v>{\bf</v>
+        <f t="shared" ref="O6:O29" si="4">IF(P6=$X6,"{\bf", "")</f>
+        <v/>
       </c>
       <c r="P6">
-        <f>Sheet1!E3</f>
-        <v>40</v>
+        <f>Sheet1!E4</f>
+        <v>39</v>
       </c>
       <c r="Q6" t="str">
-        <f t="shared" ref="Q6:Q34" si="5">IF(P6=$X6,"}", "")</f>
-        <v>}</v>
+        <f t="shared" ref="Q6:Q29" si="5">IF(P6=$X6,"}", "")</f>
+        <v/>
       </c>
       <c r="R6" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="S6" t="str">
-        <f t="shared" ref="S6:S34" si="6">IF(T6=$X6,"{\bf", "")</f>
+        <f t="shared" ref="S6:S29" si="6">IF(T6=$X6,"{\bf", "")</f>
         <v>{\bf</v>
       </c>
       <c r="T6">
-        <f>Sheet1!F3</f>
+        <f>Sheet1!F4</f>
         <v>40</v>
       </c>
       <c r="U6" t="str">
-        <f t="shared" ref="U6:U34" si="7">IF(T6=$X6,"}", "")</f>
+        <f t="shared" ref="U6:U29" si="7">IF(T6=$X6,"}", "")</f>
         <v>}</v>
       </c>
       <c r="V6" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="X6">
-        <f t="shared" ref="X6:X34" si="8">MAX(H6,L6,P6,T6)</f>
+        <f t="shared" ref="X6:X29" si="8">MAX(H6,L6,P6,T6)</f>
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:24">
       <c r="A7" t="str">
-        <f>Sheet1!A4</f>
-        <v xml:space="preserve">Bridges1 0.25 </v>
+        <f>Sheet1!A5</f>
+        <v xml:space="preserve">Bridges1 0.5 </v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D7">
-        <f>Sheet1!B4</f>
+        <f>Sheet1!B5</f>
         <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H7">
-        <f>Sheet1!C4</f>
-        <v>26</v>
+        <f>Sheet1!C5</f>
+        <v>35</v>
       </c>
       <c r="I7" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="K7" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L7">
-        <f>Sheet1!D4</f>
-        <v>26</v>
+        <f>Sheet1!D5</f>
+        <v>34</v>
       </c>
       <c r="M7" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="O7" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P7">
-        <f>Sheet1!E4</f>
-        <v>26</v>
+        <f>Sheet1!E5</f>
+        <v>34</v>
       </c>
       <c r="Q7" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="R7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="S7" t="str">
         <f t="shared" si="6"/>
         <v>{\bf</v>
       </c>
       <c r="T7">
-        <f>Sheet1!F4</f>
-        <v>28</v>
+        <f>Sheet1!F5</f>
+        <v>40</v>
       </c>
       <c r="U7" t="str">
         <f t="shared" si="7"/>
         <v>}</v>
       </c>
       <c r="V7" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="X7">
         <f t="shared" si="8"/>
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:24">
       <c r="A8" t="str">
-        <f>Sheet1!A5</f>
-        <v xml:space="preserve">Bridges1 0.5 </v>
+        <f>Sheet1!A6</f>
+        <v xml:space="preserve">Bridges1 0.75 </v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D8">
-        <f>Sheet1!B5</f>
+        <f>Sheet1!B6</f>
         <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H8">
-        <f>Sheet1!C5</f>
-        <v>22</v>
+        <f>Sheet1!C6</f>
+        <v>31</v>
       </c>
       <c r="I8" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J8" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="K8" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L8">
-        <f>Sheet1!D5</f>
-        <v>22</v>
+        <f>Sheet1!D6</f>
+        <v>30</v>
       </c>
       <c r="M8" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N8" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="O8" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P8">
-        <f>Sheet1!E5</f>
-        <v>22</v>
+        <f>Sheet1!E6</f>
+        <v>30</v>
       </c>
       <c r="Q8" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="R8" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="S8" t="str">
         <f t="shared" si="6"/>
         <v>{\bf</v>
       </c>
       <c r="T8">
-        <f>Sheet1!F5</f>
-        <v>29</v>
+        <f>Sheet1!F6</f>
+        <v>32</v>
       </c>
       <c r="U8" t="str">
         <f t="shared" si="7"/>
         <v>}</v>
       </c>
       <c r="V8" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="X8">
         <f t="shared" si="8"/>
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:24">
       <c r="A9" t="str">
-        <f>Sheet1!A6</f>
-        <v xml:space="preserve">Bridges1 0.75 </v>
+        <f>Sheet1!A7</f>
+        <v xml:space="preserve">Bridges1 1.0 </v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D9">
-        <f>Sheet1!B6</f>
+        <f>Sheet1!B7</f>
         <v>40</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>{\bf</v>
       </c>
       <c r="H9">
-        <f>Sheet1!C6</f>
-        <v>22</v>
+        <f>Sheet1!C7</f>
+        <v>30</v>
       </c>
       <c r="I9" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>}</v>
       </c>
       <c r="J9" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="K9" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L9">
-        <f>Sheet1!D6</f>
-        <v>21</v>
+        <f>Sheet1!D7</f>
+        <v>20</v>
       </c>
       <c r="M9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N9" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="O9" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P9">
-        <f>Sheet1!E6</f>
-        <v>21</v>
+        <f>Sheet1!E7</f>
+        <v>20</v>
       </c>
       <c r="Q9" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="R9" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="S9" t="str">
         <f t="shared" si="6"/>
         <v>{\bf</v>
       </c>
       <c r="T9">
-        <f>Sheet1!F6</f>
-        <v>28</v>
+        <f>Sheet1!F7</f>
+        <v>30</v>
       </c>
       <c r="U9" t="str">
         <f t="shared" si="7"/>
         <v>}</v>
       </c>
       <c r="V9" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="X9">
         <f t="shared" si="8"/>
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:24">
       <c r="A10" t="str">
-        <f>Sheet1!A7</f>
-        <v xml:space="preserve">Bridges1 1.0 </v>
+        <f>Sheet1!A9</f>
+        <v xml:space="preserve">Bridges2 0.25 </v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D10">
-        <f>Sheet1!B7</f>
+        <f>Sheet1!B9</f>
         <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H10">
-        <f>Sheet1!C7</f>
-        <v>20</v>
+        <f>Sheet1!C9</f>
+        <v>39</v>
       </c>
       <c r="I10" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J10" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="K10" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L10">
-        <f>Sheet1!D7</f>
-        <v>20</v>
+        <f>Sheet1!D9</f>
+        <v>39</v>
       </c>
       <c r="M10" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N10" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="O10" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P10">
-        <f>Sheet1!E7</f>
-        <v>20</v>
+        <f>Sheet1!E9</f>
+        <v>39</v>
       </c>
       <c r="Q10" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="R10" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="S10" t="str">
         <f t="shared" si="6"/>
         <v>{\bf</v>
       </c>
       <c r="T10">
-        <f>Sheet1!F7</f>
-        <v>30</v>
+        <f>Sheet1!F9</f>
+        <v>40</v>
       </c>
       <c r="U10" t="str">
         <f t="shared" si="7"/>
         <v>}</v>
       </c>
       <c r="V10" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="X10">
         <f t="shared" si="8"/>
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:24">
       <c r="A11" t="str">
-        <f>Sheet1!A8</f>
-        <v xml:space="preserve">Bridges2 0.0 </v>
+        <f>Sheet1!A10</f>
+        <v xml:space="preserve">Bridges2 0.5 </v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D11">
-        <f>Sheet1!B8</f>
+        <f>Sheet1!B10</f>
         <v>40</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
-        <v>{\bf</v>
+        <v/>
       </c>
       <c r="H11">
-        <f>Sheet1!C8</f>
-        <v>40</v>
+        <f>Sheet1!C10</f>
+        <v>34</v>
       </c>
       <c r="I11" t="str">
         <f t="shared" si="1"/>
-        <v>}</v>
+        <v/>
       </c>
       <c r="J11" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" si="2"/>
-        <v>{\bf</v>
+        <v/>
       </c>
       <c r="L11">
-        <f>Sheet1!D8</f>
-        <v>40</v>
+        <f>Sheet1!D10</f>
+        <v>35</v>
       </c>
       <c r="M11" t="str">
         <f t="shared" si="3"/>
-        <v>}</v>
+        <v/>
       </c>
       <c r="N11" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="O11" t="str">
         <f t="shared" si="4"/>
-        <v>{\bf</v>
+        <v/>
       </c>
       <c r="P11">
-        <f>Sheet1!E8</f>
-        <v>40</v>
+        <f>Sheet1!E10</f>
+        <v>33</v>
       </c>
       <c r="Q11" t="str">
         <f t="shared" si="5"/>
-        <v>}</v>
+        <v/>
       </c>
       <c r="R11" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="S11" t="str">
         <f t="shared" si="6"/>
         <v>{\bf</v>
       </c>
       <c r="T11">
-        <f>Sheet1!F8</f>
+        <f>Sheet1!F10</f>
         <v>40</v>
       </c>
       <c r="U11" t="str">
@@ -1849,7 +2153,7 @@
         <v>}</v>
       </c>
       <c r="V11" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="X11">
         <f t="shared" si="8"/>
@@ -1858,390 +2162,390 @@
     </row>
     <row r="12" spans="1:24">
       <c r="A12" t="str">
-        <f>Sheet1!A9</f>
-        <v xml:space="preserve">Bridges2 0.25 </v>
+        <f>Sheet1!A11</f>
+        <v xml:space="preserve">Bridges2 0.75 </v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D12">
-        <f>Sheet1!B9</f>
+        <f>Sheet1!B11</f>
         <v>40</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>{\bf</v>
       </c>
       <c r="H12">
-        <f>Sheet1!C9</f>
-        <v>26</v>
+        <f>Sheet1!C11</f>
+        <v>31</v>
       </c>
       <c r="I12" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>}</v>
       </c>
       <c r="J12" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="K12" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L12">
-        <f>Sheet1!D9</f>
-        <v>26</v>
+        <f>Sheet1!D11</f>
+        <v>29</v>
       </c>
       <c r="M12" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N12" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="O12" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P12">
-        <f>Sheet1!E9</f>
-        <v>26</v>
+        <f>Sheet1!E11</f>
+        <v>30</v>
       </c>
       <c r="Q12" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="R12" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="S12" t="str">
         <f t="shared" si="6"/>
-        <v>{\bf</v>
+        <v/>
       </c>
       <c r="T12">
-        <f>Sheet1!F9</f>
-        <v>28</v>
+        <f>Sheet1!F11</f>
+        <v>30</v>
       </c>
       <c r="U12" t="str">
         <f t="shared" si="7"/>
-        <v>}</v>
+        <v/>
       </c>
       <c r="V12" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="X12">
         <f t="shared" si="8"/>
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:24">
       <c r="A13" t="str">
-        <f>Sheet1!A10</f>
-        <v xml:space="preserve">Bridges2 0.5 </v>
+        <f>Sheet1!A12</f>
+        <v xml:space="preserve">Bridges2 1.0 </v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D13">
-        <f>Sheet1!B10</f>
+        <f>Sheet1!B12</f>
         <v>40</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>{\bf</v>
       </c>
       <c r="H13">
-        <f>Sheet1!C10</f>
-        <v>22</v>
+        <f>Sheet1!C12</f>
+        <v>30</v>
       </c>
       <c r="I13" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>}</v>
       </c>
       <c r="J13" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="K13" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L13">
-        <f>Sheet1!D10</f>
-        <v>22</v>
+        <f>Sheet1!D12</f>
+        <v>29</v>
       </c>
       <c r="M13" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N13" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="O13" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P13">
-        <f>Sheet1!E10</f>
-        <v>22</v>
+        <f>Sheet1!E12</f>
+        <v>28</v>
       </c>
       <c r="Q13" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="R13" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="S13" t="str">
         <f t="shared" si="6"/>
         <v>{\bf</v>
       </c>
       <c r="T13">
-        <f>Sheet1!F10</f>
-        <v>29</v>
+        <f>Sheet1!F12</f>
+        <v>30</v>
       </c>
       <c r="U13" t="str">
         <f t="shared" si="7"/>
         <v>}</v>
       </c>
       <c r="V13" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="X13">
         <f t="shared" si="8"/>
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:24">
       <c r="A14" t="str">
-        <f>Sheet1!A11</f>
-        <v xml:space="preserve">Bridges2 0.75 </v>
+        <f>Sheet1!A15</f>
+        <v xml:space="preserve">Bridges3 0.25 </v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D14">
-        <f>Sheet1!B11</f>
+        <f>Sheet1!B15</f>
         <v>40</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>{\bf</v>
       </c>
       <c r="H14">
-        <f>Sheet1!C11</f>
-        <v>21</v>
+        <f>Sheet1!C15</f>
+        <v>40</v>
       </c>
       <c r="I14" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>}</v>
       </c>
       <c r="J14" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="K14" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>{\bf</v>
       </c>
       <c r="L14">
-        <f>Sheet1!D11</f>
-        <v>21</v>
+        <f>Sheet1!D15</f>
+        <v>40</v>
       </c>
       <c r="M14" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>}</v>
       </c>
       <c r="N14" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="O14" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>{\bf</v>
       </c>
       <c r="P14">
-        <f>Sheet1!E11</f>
-        <v>21</v>
+        <f>Sheet1!E15</f>
+        <v>40</v>
       </c>
       <c r="Q14" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>}</v>
       </c>
       <c r="R14" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="S14" t="str">
         <f t="shared" si="6"/>
         <v>{\bf</v>
       </c>
       <c r="T14">
-        <f>Sheet1!F11</f>
-        <v>27</v>
+        <f>Sheet1!F15</f>
+        <v>40</v>
       </c>
       <c r="U14" t="str">
         <f t="shared" si="7"/>
         <v>}</v>
       </c>
       <c r="V14" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="X14">
         <f t="shared" si="8"/>
-        <v>27</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:24">
       <c r="A15" t="str">
-        <f>Sheet1!A12</f>
-        <v xml:space="preserve">Bridges2 1.0 </v>
+        <f>Sheet1!A16</f>
+        <v xml:space="preserve">Bridges3 0.5 </v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D15">
-        <f>Sheet1!B12</f>
+        <f>Sheet1!B16</f>
         <v>40</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>{\bf</v>
       </c>
       <c r="H15">
-        <f>Sheet1!C12</f>
-        <v>20</v>
+        <f>Sheet1!C16</f>
+        <v>40</v>
       </c>
       <c r="I15" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>}</v>
       </c>
       <c r="J15" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="K15" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>{\bf</v>
       </c>
       <c r="L15">
-        <f>Sheet1!D12</f>
-        <v>20</v>
+        <f>Sheet1!D16</f>
+        <v>40</v>
       </c>
       <c r="M15" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>}</v>
       </c>
       <c r="N15" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="O15" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>{\bf</v>
       </c>
       <c r="P15">
-        <f>Sheet1!E12</f>
-        <v>20</v>
+        <f>Sheet1!E16</f>
+        <v>40</v>
       </c>
       <c r="Q15" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>}</v>
       </c>
       <c r="R15" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="S15" t="str">
         <f t="shared" si="6"/>
         <v>{\bf</v>
       </c>
       <c r="T15">
-        <f>Sheet1!F12</f>
-        <v>29</v>
+        <f>Sheet1!F16</f>
+        <v>40</v>
       </c>
       <c r="U15" t="str">
         <f t="shared" si="7"/>
         <v>}</v>
       </c>
       <c r="V15" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="X15">
         <f t="shared" si="8"/>
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:24">
       <c r="A16" t="str">
-        <f>Sheet1!A14</f>
-        <v xml:space="preserve">Bridges3 0.0 </v>
+        <f>Sheet1!A17</f>
+        <v xml:space="preserve">Bridges3 0.75 </v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D16">
-        <f>Sheet1!B14</f>
+        <f>Sheet1!B17</f>
         <v>40</v>
       </c>
       <c r="F16" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
-        <v>{\bf</v>
+        <v/>
       </c>
       <c r="H16">
-        <f>Sheet1!C14</f>
-        <v>40</v>
+        <f>Sheet1!C17</f>
+        <v>38</v>
       </c>
       <c r="I16" t="str">
         <f t="shared" si="1"/>
-        <v>}</v>
+        <v/>
       </c>
       <c r="J16" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="K16" t="str">
         <f t="shared" si="2"/>
-        <v>{\bf</v>
+        <v/>
       </c>
       <c r="L16">
-        <f>Sheet1!D14</f>
-        <v>40</v>
+        <f>Sheet1!D17</f>
+        <v>38</v>
       </c>
       <c r="M16" t="str">
         <f t="shared" si="3"/>
-        <v>}</v>
+        <v/>
       </c>
       <c r="N16" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="O16" t="str">
         <f t="shared" si="4"/>
-        <v>{\bf</v>
+        <v/>
       </c>
       <c r="P16">
-        <f>Sheet1!E14</f>
-        <v>40</v>
+        <f>Sheet1!E17</f>
+        <v>38</v>
       </c>
       <c r="Q16" t="str">
         <f t="shared" si="5"/>
-        <v>}</v>
+        <v/>
       </c>
       <c r="R16" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="S16" t="str">
         <f t="shared" si="6"/>
         <v>{\bf</v>
       </c>
       <c r="T16">
-        <f>Sheet1!F14</f>
+        <f>Sheet1!F17</f>
         <v>40</v>
       </c>
       <c r="U16" t="str">
@@ -2249,7 +2553,7 @@
         <v>}</v>
       </c>
       <c r="V16" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="X16">
         <f t="shared" si="8"/>
@@ -2258,1542 +2562,1126 @@
     </row>
     <row r="17" spans="1:24">
       <c r="A17" t="str">
-        <f>Sheet1!A15</f>
-        <v xml:space="preserve">Bridges3 0.25 </v>
+        <f>Sheet1!A18</f>
+        <v xml:space="preserve">Bridges3 1.0 </v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D17">
-        <f>Sheet1!B15</f>
+        <f>Sheet1!B18</f>
         <v>40</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
         <v>{\bf</v>
       </c>
       <c r="H17">
-        <f>Sheet1!C15</f>
-        <v>32</v>
+        <f>Sheet1!C18</f>
+        <v>37</v>
       </c>
       <c r="I17" t="str">
         <f t="shared" si="1"/>
         <v>}</v>
       </c>
       <c r="J17" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="K17" t="str">
         <f t="shared" si="2"/>
         <v>{\bf</v>
       </c>
       <c r="L17">
-        <f>Sheet1!D15</f>
-        <v>32</v>
+        <f>Sheet1!D18</f>
+        <v>37</v>
       </c>
       <c r="M17" t="str">
         <f t="shared" si="3"/>
         <v>}</v>
       </c>
       <c r="N17" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="O17" t="str">
         <f t="shared" si="4"/>
-        <v>{\bf</v>
+        <v/>
       </c>
       <c r="P17">
-        <f>Sheet1!E15</f>
-        <v>32</v>
+        <f>Sheet1!E18</f>
+        <v>36</v>
       </c>
       <c r="Q17" t="str">
         <f t="shared" si="5"/>
-        <v>}</v>
+        <v/>
       </c>
       <c r="R17" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="S17" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T17">
-        <f>Sheet1!F15</f>
-        <v>31</v>
+        <f>Sheet1!F18</f>
+        <v>36</v>
       </c>
       <c r="U17" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="V17" t="s">
-        <v>38</v>
+        <v>47</v>
+      </c>
+      <c r="W17" t="s">
+        <v>48</v>
       </c>
       <c r="X17">
         <f t="shared" si="8"/>
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:24">
       <c r="A18" t="str">
-        <f>Sheet1!A16</f>
-        <v xml:space="preserve">Bridges3 0.5 </v>
+        <f>Sheet1!A20</f>
+        <v xml:space="preserve">Bridges </v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D18">
-        <f>Sheet1!B16</f>
-        <v>40</v>
+        <f>SUM(D6:D17)</f>
+        <v>480</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H18">
-        <f>Sheet1!C16</f>
-        <v>36</v>
+        <f>SUM(H6:H17)</f>
+        <v>425</v>
       </c>
       <c r="I18" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J18" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="K18" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L18">
-        <f>Sheet1!D16</f>
-        <v>36</v>
+        <f>SUM(L6:L17)</f>
+        <v>410</v>
       </c>
       <c r="M18" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N18" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="O18" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P18">
-        <f>Sheet1!E16</f>
-        <v>36</v>
+        <f>SUM(P6:P17)</f>
+        <v>407</v>
       </c>
       <c r="Q18" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="R18" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="S18" t="str">
         <f t="shared" si="6"/>
         <v>{\bf</v>
       </c>
       <c r="T18">
-        <f>Sheet1!F16</f>
-        <v>38</v>
+        <f>SUM(T6:T17)</f>
+        <v>438</v>
       </c>
       <c r="U18" t="str">
         <f t="shared" si="7"/>
         <v>}</v>
       </c>
       <c r="V18" t="s">
-        <v>38</v>
+        <v>47</v>
+      </c>
+      <c r="W18" t="s">
+        <v>18</v>
       </c>
       <c r="X18">
         <f t="shared" si="8"/>
-        <v>38</v>
+        <v>438</v>
       </c>
     </row>
     <row r="19" spans="1:24">
       <c r="A19" t="str">
-        <f>Sheet1!A17</f>
-        <v xml:space="preserve">Bridges3 0.75 </v>
+        <f>Sheet1!A21</f>
+        <v xml:space="preserve">Barter 0.25 </v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D19">
-        <f>Sheet1!B17</f>
-        <v>40</v>
+        <f>Sheet1!B21</f>
+        <v>120</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>{\bf</v>
       </c>
       <c r="H19">
-        <f>Sheet1!C17</f>
-        <v>28</v>
+        <f>Sheet1!C21</f>
+        <v>120</v>
       </c>
       <c r="I19" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>}</v>
       </c>
       <c r="J19" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>{\bf</v>
       </c>
       <c r="L19">
-        <f>Sheet1!D17</f>
-        <v>28</v>
+        <f>Sheet1!D21</f>
+        <v>120</v>
       </c>
       <c r="M19" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>}</v>
       </c>
       <c r="N19" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="O19" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>{\bf</v>
       </c>
       <c r="P19">
-        <f>Sheet1!E17</f>
-        <v>28</v>
+        <f>Sheet1!E21</f>
+        <v>120</v>
       </c>
       <c r="Q19" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>}</v>
       </c>
       <c r="R19" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="S19" t="str">
         <f t="shared" si="6"/>
         <v>{\bf</v>
       </c>
       <c r="T19">
-        <f>Sheet1!F17</f>
-        <v>34</v>
+        <f>Sheet1!F21</f>
+        <v>120</v>
       </c>
       <c r="U19" t="str">
         <f t="shared" si="7"/>
         <v>}</v>
       </c>
       <c r="V19" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="X19">
         <f t="shared" si="8"/>
-        <v>34</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:24">
       <c r="A20" t="str">
-        <f>Sheet1!A18</f>
-        <v xml:space="preserve">Bridges3 1.0 </v>
+        <f>Sheet1!A22</f>
+        <v xml:space="preserve">Barter 0.5 </v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D20">
-        <f>Sheet1!B18</f>
-        <v>40</v>
+        <f>Sheet1!B22</f>
+        <v>120</v>
       </c>
       <c r="F20" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
         <v>{\bf</v>
       </c>
       <c r="H20">
-        <f>Sheet1!C18</f>
-        <v>30</v>
+        <f>Sheet1!C22</f>
+        <v>120</v>
       </c>
       <c r="I20" t="str">
         <f t="shared" si="1"/>
         <v>}</v>
       </c>
       <c r="J20" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" si="2"/>
         <v>{\bf</v>
       </c>
       <c r="L20">
-        <f>Sheet1!D18</f>
-        <v>30</v>
+        <f>Sheet1!D22</f>
+        <v>120</v>
       </c>
       <c r="M20" t="str">
         <f t="shared" si="3"/>
         <v>}</v>
       </c>
       <c r="N20" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="O20" t="str">
         <f t="shared" si="4"/>
         <v>{\bf</v>
       </c>
       <c r="P20">
-        <f>Sheet1!E18</f>
-        <v>30</v>
+        <f>Sheet1!E22</f>
+        <v>120</v>
       </c>
       <c r="Q20" t="str">
         <f t="shared" si="5"/>
         <v>}</v>
       </c>
       <c r="R20" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="S20" t="str">
         <f t="shared" si="6"/>
-        <v>{\bf</v>
+        <v/>
       </c>
       <c r="T20">
-        <f>Sheet1!F18</f>
-        <v>30</v>
+        <f>Sheet1!F22</f>
+        <v>117</v>
       </c>
       <c r="U20" t="str">
         <f t="shared" si="7"/>
-        <v>}</v>
+        <v/>
       </c>
       <c r="V20" t="s">
-        <v>38</v>
-      </c>
-      <c r="W20" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="X20">
         <f t="shared" si="8"/>
-        <v>30</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:24">
       <c r="A21" t="str">
-        <f>Sheet1!A20</f>
-        <v xml:space="preserve">Bridges </v>
+        <f>Sheet1!A23</f>
+        <v xml:space="preserve">Barter 0.75 </v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D21">
-        <f>SUM(D6:D20)</f>
-        <v>600</v>
+        <f>Sheet1!B23</f>
+        <v>120</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>{\bf</v>
       </c>
       <c r="H21">
-        <f>SUM(H6:H20)</f>
-        <v>425</v>
+        <f>Sheet1!C23</f>
+        <v>120</v>
       </c>
       <c r="I21" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>}</v>
       </c>
       <c r="J21" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="K21" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L21">
-        <f>SUM(L6:L20)</f>
-        <v>424</v>
+        <f>Sheet1!D23</f>
+        <v>119</v>
       </c>
       <c r="M21" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N21" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="O21" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>{\bf</v>
       </c>
       <c r="P21">
-        <f>SUM(P6:P20)</f>
-        <v>424</v>
+        <f>Sheet1!E23</f>
+        <v>120</v>
       </c>
       <c r="Q21" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>}</v>
       </c>
       <c r="R21" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="S21" t="str">
         <f t="shared" si="6"/>
-        <v>{\bf</v>
+        <v/>
       </c>
       <c r="T21">
-        <f>SUM(T6:T20)</f>
-        <v>481</v>
+        <f>Sheet1!F23</f>
+        <v>111</v>
       </c>
       <c r="U21" t="str">
         <f t="shared" si="7"/>
-        <v>}</v>
+        <v/>
       </c>
       <c r="V21" t="s">
-        <v>38</v>
-      </c>
-      <c r="W21" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="X21">
         <f t="shared" si="8"/>
-        <v>481</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:24">
       <c r="A22" t="str">
-        <f>Sheet1!A21</f>
-        <v xml:space="preserve">Barter 0.25 </v>
+        <f>Sheet1!A24</f>
+        <v xml:space="preserve">Barter 1.0 </v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D22">
-        <f>Sheet1!B21</f>
-        <v>120</v>
+        <f>Sheet1!B24</f>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" si="0"/>
         <v>{\bf</v>
       </c>
       <c r="H22">
-        <f>Sheet1!C21</f>
-        <v>120</v>
+        <f>Sheet1!C24</f>
+        <v>12</v>
       </c>
       <c r="I22" t="str">
         <f t="shared" si="1"/>
         <v>}</v>
       </c>
       <c r="J22" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="K22" t="str">
         <f t="shared" si="2"/>
         <v>{\bf</v>
       </c>
       <c r="L22">
-        <f>Sheet1!D21</f>
-        <v>120</v>
+        <f>Sheet1!D24</f>
+        <v>12</v>
       </c>
       <c r="M22" t="str">
         <f t="shared" si="3"/>
         <v>}</v>
       </c>
       <c r="N22" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="O22" t="str">
         <f t="shared" si="4"/>
         <v>{\bf</v>
       </c>
       <c r="P22">
-        <f>Sheet1!E21</f>
-        <v>120</v>
+        <f>Sheet1!E24</f>
+        <v>12</v>
       </c>
       <c r="Q22" t="str">
         <f t="shared" si="5"/>
         <v>}</v>
       </c>
       <c r="R22" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="S22" t="str">
         <f t="shared" si="6"/>
-        <v>{\bf</v>
+        <v/>
       </c>
       <c r="T22">
-        <f>Sheet1!F21</f>
-        <v>120</v>
+        <f>Sheet1!F24</f>
+        <v>11</v>
       </c>
       <c r="U22" t="str">
         <f t="shared" si="7"/>
-        <v>}</v>
+        <v/>
       </c>
       <c r="V22" t="s">
-        <v>38</v>
+        <v>47</v>
+      </c>
+      <c r="W22" t="s">
+        <v>48</v>
       </c>
       <c r="X22">
         <f t="shared" si="8"/>
-        <v>120</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:24">
       <c r="A23" t="str">
-        <f>Sheet1!A22</f>
-        <v xml:space="preserve">Barter 0.5 </v>
+        <f>Sheet1!A25</f>
+        <v xml:space="preserve">Barter </v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D23">
-        <f>Sheet1!B22</f>
-        <v>120</v>
+        <f>SUM(D19:D22)</f>
+        <v>372</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G23" t="str">
         <f t="shared" si="0"/>
         <v>{\bf</v>
       </c>
       <c r="H23">
-        <f>Sheet1!C22</f>
-        <v>120</v>
+        <f>SUM(H19:H22)</f>
+        <v>372</v>
       </c>
       <c r="I23" t="str">
         <f t="shared" si="1"/>
         <v>}</v>
       </c>
       <c r="J23" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" si="2"/>
-        <v>{\bf</v>
+        <v/>
       </c>
       <c r="L23">
-        <f>Sheet1!D22</f>
-        <v>120</v>
+        <f>SUM(L19:L22)</f>
+        <v>371</v>
       </c>
       <c r="M23" t="str">
         <f t="shared" si="3"/>
-        <v>}</v>
+        <v/>
       </c>
       <c r="N23" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="O23" t="str">
         <f t="shared" si="4"/>
         <v>{\bf</v>
       </c>
       <c r="P23">
-        <f>Sheet1!E22</f>
-        <v>120</v>
+        <f>SUM(P19:P22)</f>
+        <v>372</v>
       </c>
       <c r="Q23" t="str">
         <f t="shared" si="5"/>
         <v>}</v>
       </c>
       <c r="R23" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="S23" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T23">
-        <f>Sheet1!F22</f>
-        <v>117</v>
+        <f>SUM(T19:T22)</f>
+        <v>359</v>
       </c>
       <c r="U23" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="V23" t="s">
-        <v>38</v>
+        <v>47</v>
+      </c>
+      <c r="W23" t="s">
+        <v>18</v>
       </c>
       <c r="X23">
         <f t="shared" si="8"/>
-        <v>120</v>
+        <v>372</v>
       </c>
     </row>
     <row r="24" spans="1:24">
       <c r="A24" t="str">
-        <f>Sheet1!A23</f>
-        <v xml:space="preserve">Barter 0.75 </v>
+        <f>Sheet1!A28</f>
+        <v xml:space="preserve">Pathways 0.25 </v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>46</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" ref="C24:C29" si="9">IF(D24=$X24,"{\bf", "")</f>
+        <v/>
       </c>
       <c r="D24">
-        <f>Sheet1!B23</f>
-        <v>120</v>
+        <f>Sheet1!B28</f>
+        <v>140</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" ref="E24:E29" si="10">IF(D24=$X24,"}", "")</f>
+        <v/>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G24" t="str">
         <f t="shared" si="0"/>
-        <v>{\bf</v>
+        <v/>
       </c>
       <c r="H24">
-        <f>Sheet1!C23</f>
-        <v>120</v>
+        <f>Sheet1!C28</f>
+        <v>50</v>
       </c>
       <c r="I24" t="str">
         <f t="shared" si="1"/>
-        <v>}</v>
+        <v/>
       </c>
       <c r="J24" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="K24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L24">
-        <f>Sheet1!D23</f>
-        <v>119</v>
+        <f>Sheet1!D28</f>
+        <v>40</v>
       </c>
       <c r="M24" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N24" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="O24" t="str">
         <f t="shared" si="4"/>
-        <v>{\bf</v>
+        <v/>
       </c>
       <c r="P24">
-        <f>Sheet1!E23</f>
-        <v>120</v>
+        <f>Sheet1!E28</f>
+        <v>40</v>
       </c>
       <c r="Q24" t="str">
         <f t="shared" si="5"/>
-        <v>}</v>
+        <v/>
       </c>
       <c r="R24" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="S24" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>{\bf</v>
       </c>
       <c r="T24">
-        <f>Sheet1!F23</f>
-        <v>111</v>
+        <f>Sheet1!F28</f>
+        <v>60</v>
       </c>
       <c r="U24" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>}</v>
       </c>
       <c r="V24" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="X24">
         <f t="shared" si="8"/>
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:24">
       <c r="A25" t="str">
-        <f>Sheet1!A24</f>
-        <v xml:space="preserve">Barter 1.0 </v>
+        <f>Sheet1!A29</f>
+        <v xml:space="preserve">Pathways 0.5 </v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>46</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="9"/>
+        <v/>
       </c>
       <c r="D25">
-        <f>Sheet1!B24</f>
-        <v>12</v>
+        <f>Sheet1!B29</f>
+        <v>140</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="10"/>
+        <v/>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G25" t="str">
         <f t="shared" si="0"/>
         <v>{\bf</v>
       </c>
       <c r="H25">
-        <f>Sheet1!C24</f>
-        <v>12</v>
+        <f>Sheet1!C29</f>
+        <v>70</v>
       </c>
       <c r="I25" t="str">
         <f t="shared" si="1"/>
         <v>}</v>
       </c>
       <c r="J25" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="K25" t="str">
         <f t="shared" si="2"/>
-        <v>{\bf</v>
+        <v/>
       </c>
       <c r="L25">
-        <f>Sheet1!D24</f>
-        <v>12</v>
+        <f>Sheet1!D29</f>
+        <v>60</v>
       </c>
       <c r="M25" t="str">
         <f t="shared" si="3"/>
-        <v>}</v>
+        <v/>
       </c>
       <c r="N25" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="O25" t="str">
         <f t="shared" si="4"/>
-        <v>{\bf</v>
+        <v/>
       </c>
       <c r="P25">
-        <f>Sheet1!E24</f>
-        <v>12</v>
+        <f>Sheet1!E29</f>
+        <v>50</v>
       </c>
       <c r="Q25" t="str">
         <f t="shared" si="5"/>
-        <v>}</v>
+        <v/>
       </c>
       <c r="R25" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="S25" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="T25">
-        <f>Sheet1!F24</f>
-        <v>11</v>
+        <f>Sheet1!F29</f>
+        <v>60</v>
       </c>
       <c r="U25" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="V25" t="s">
-        <v>38</v>
-      </c>
-      <c r="W25" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="X25">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:24">
       <c r="A26" t="str">
-        <f>Sheet1!A25</f>
-        <v xml:space="preserve">Barter </v>
+        <f>Sheet1!A30</f>
+        <v xml:space="preserve">Pathways 0.75 </v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>46</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="9"/>
+        <v/>
       </c>
       <c r="D26">
-        <f>SUM(D22:D25)</f>
-        <v>372</v>
+        <f>Sheet1!B30</f>
+        <v>150</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="10"/>
+        <v/>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" si="0"/>
         <v>{\bf</v>
       </c>
       <c r="H26">
-        <f>SUM(H22:H25)</f>
-        <v>372</v>
+        <f>Sheet1!C30</f>
+        <v>60</v>
       </c>
       <c r="I26" t="str">
         <f t="shared" si="1"/>
         <v>}</v>
       </c>
       <c r="J26" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="K26" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L26">
-        <f>SUM(L22:L25)</f>
-        <v>371</v>
+        <f>Sheet1!D30</f>
+        <v>40</v>
       </c>
       <c r="M26" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N26" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="O26" t="str">
         <f t="shared" si="4"/>
-        <v>{\bf</v>
+        <v/>
       </c>
       <c r="P26">
-        <f>SUM(P22:P25)</f>
-        <v>372</v>
+        <f>Sheet1!E30</f>
+        <v>40</v>
       </c>
       <c r="Q26" t="str">
         <f t="shared" si="5"/>
-        <v>}</v>
+        <v/>
       </c>
       <c r="R26" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="S26" t="str">
         <f t="shared" si="6"/>
-        <v/>
+        <v>{\bf</v>
       </c>
       <c r="T26">
-        <f>SUM(T22:T25)</f>
-        <v>359</v>
+        <f>Sheet1!F30</f>
+        <v>60</v>
       </c>
       <c r="U26" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>}</v>
       </c>
       <c r="V26" t="s">
-        <v>38</v>
-      </c>
-      <c r="W26" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="X26">
         <f t="shared" si="8"/>
-        <v>372</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:24">
       <c r="A27" t="str">
-        <f>Sheet1!A26</f>
-        <v xml:space="preserve">Pathways 0.01 </v>
+        <f>Sheet1!A31</f>
+        <v xml:space="preserve">Pathways 1.0 </v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C27" t="str">
-        <f t="shared" ref="C6:C34" si="9">IF(D27=$X27,"{\bf", "")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D27">
-        <f>Sheet1!B26</f>
-        <v>140</v>
+        <f>Sheet1!B31</f>
+        <v>170</v>
       </c>
       <c r="E27" t="str">
-        <f t="shared" ref="E6:E34" si="10">IF(D27=$X27,"}", "")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G27" t="str">
         <f t="shared" si="0"/>
-        <v>{\bf</v>
+        <v/>
       </c>
       <c r="H27">
-        <f>Sheet1!C26</f>
+        <f>Sheet1!C31</f>
         <v>50</v>
       </c>
       <c r="I27" t="str">
         <f t="shared" si="1"/>
-        <v>}</v>
+        <v/>
       </c>
       <c r="J27" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="K27" t="str">
         <f t="shared" si="2"/>
-        <v>{\bf</v>
+        <v/>
       </c>
       <c r="L27">
-        <f>Sheet1!D26</f>
-        <v>50</v>
+        <f>Sheet1!D31</f>
+        <v>60</v>
       </c>
       <c r="M27" t="str">
         <f t="shared" si="3"/>
-        <v>}</v>
+        <v/>
       </c>
       <c r="N27" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="O27" t="str">
         <f t="shared" si="4"/>
-        <v>{\bf</v>
+        <v/>
       </c>
       <c r="P27">
-        <f>Sheet1!E26</f>
-        <v>50</v>
+        <f>Sheet1!E31</f>
+        <v>60</v>
       </c>
       <c r="Q27" t="str">
         <f t="shared" si="5"/>
-        <v>}</v>
+        <v/>
       </c>
       <c r="R27" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="S27" t="str">
         <f t="shared" si="6"/>
         <v>{\bf</v>
       </c>
       <c r="T27">
-        <f>Sheet1!F26</f>
-        <v>50</v>
+        <f>Sheet1!F31</f>
+        <v>70</v>
       </c>
       <c r="U27" t="str">
         <f t="shared" si="7"/>
         <v>}</v>
       </c>
       <c r="V27" t="s">
-        <v>38</v>
+        <v>47</v>
+      </c>
+      <c r="W27" t="s">
+        <v>48</v>
       </c>
       <c r="X27">
         <f t="shared" si="8"/>
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:24">
       <c r="A28" t="str">
-        <f>Sheet1!A27</f>
-        <v xml:space="preserve">Pathways 0.0 </v>
+        <f>Sheet1!A32</f>
+        <v xml:space="preserve">Pathways </v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D28">
-        <f>Sheet1!B27</f>
-        <v>130</v>
+        <f>SUM(D24:D27)</f>
+        <v>600</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G28" t="str">
         <f t="shared" si="0"/>
-        <v>{\bf</v>
+        <v/>
       </c>
       <c r="H28">
-        <f>Sheet1!C27</f>
-        <v>40</v>
+        <f>SUM(H24:H27)</f>
+        <v>230</v>
       </c>
       <c r="I28" t="str">
         <f t="shared" si="1"/>
-        <v>}</v>
+        <v/>
       </c>
       <c r="J28" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="K28" t="str">
         <f t="shared" si="2"/>
-        <v>{\bf</v>
+        <v/>
       </c>
       <c r="L28">
-        <f>Sheet1!D27</f>
-        <v>40</v>
+        <f>SUM(L24:L27)</f>
+        <v>200</v>
       </c>
       <c r="M28" t="str">
         <f t="shared" si="3"/>
-        <v>}</v>
+        <v/>
       </c>
       <c r="N28" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="O28" t="str">
         <f t="shared" si="4"/>
-        <v>{\bf</v>
+        <v/>
       </c>
       <c r="P28">
-        <f>Sheet1!E27</f>
-        <v>40</v>
+        <f>SUM(P24:P27)</f>
+        <v>190</v>
       </c>
       <c r="Q28" t="str">
         <f t="shared" si="5"/>
-        <v>}</v>
+        <v/>
       </c>
       <c r="R28" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="S28" t="str">
         <f t="shared" si="6"/>
         <v>{\bf</v>
       </c>
       <c r="T28">
-        <f>Sheet1!F27</f>
-        <v>40</v>
+        <f>SUM(T24:T27)</f>
+        <v>250</v>
       </c>
       <c r="U28" t="str">
         <f t="shared" si="7"/>
         <v>}</v>
       </c>
       <c r="V28" t="s">
-        <v>38</v>
+        <v>47</v>
+      </c>
+      <c r="W28" t="s">
+        <v>18</v>
       </c>
       <c r="X28">
         <f t="shared" si="8"/>
-        <v>40</v>
+        <v>250</v>
       </c>
     </row>
     <row r="29" spans="1:24">
       <c r="A29" t="str">
-        <f>Sheet1!A28</f>
-        <v xml:space="preserve">Pathways 0.25 </v>
+        <f>Sheet1!A33</f>
+        <v>Total</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="D29">
-        <f>Sheet1!B28</f>
-        <v>140</v>
+        <f>D28+D23+D18+D5</f>
+        <v>1621</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G29" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="H29">
-        <f>Sheet1!C28</f>
-        <v>50</v>
+        <f>H28+H23+H18+H5</f>
+        <v>1124</v>
       </c>
       <c r="I29" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="J29" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="K29" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="L29">
-        <f>Sheet1!D28</f>
-        <v>40</v>
+        <f>L28+L23+L18+L5</f>
+        <v>1078</v>
       </c>
       <c r="M29" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="N29" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="O29" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="P29">
-        <f>Sheet1!E28</f>
-        <v>40</v>
+        <f>P28+P23+P18+P5</f>
+        <v>1069</v>
       </c>
       <c r="Q29" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="R29" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="S29" t="str">
         <f t="shared" si="6"/>
         <v>{\bf</v>
       </c>
       <c r="T29">
-        <f>Sheet1!F28</f>
-        <v>60</v>
+        <f>T28+T23+T18+T5</f>
+        <v>1187</v>
       </c>
       <c r="U29" t="str">
         <f t="shared" si="7"/>
         <v>}</v>
       </c>
       <c r="V29" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="X29">
         <f t="shared" si="8"/>
-        <v>60</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="30" spans="1:24">
-      <c r="A30" t="str">
-        <f>Sheet1!A29</f>
-        <v xml:space="preserve">Pathways 0.5 </v>
-      </c>
-      <c r="B30" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="D30">
-        <f>Sheet1!B29</f>
-        <v>140</v>
-      </c>
-      <c r="E30" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F30" t="s">
-        <v>37</v>
-      </c>
-      <c r="G30" t="str">
-        <f t="shared" si="0"/>
-        <v>{\bf</v>
-      </c>
-      <c r="H30">
-        <f>Sheet1!C29</f>
-        <v>70</v>
-      </c>
-      <c r="I30" t="str">
-        <f t="shared" si="1"/>
-        <v>}</v>
-      </c>
-      <c r="J30" t="s">
-        <v>37</v>
-      </c>
-      <c r="K30" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L30">
-        <f>Sheet1!D29</f>
-        <v>60</v>
-      </c>
-      <c r="M30" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="N30" t="s">
-        <v>37</v>
-      </c>
-      <c r="O30" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="P30">
-        <f>Sheet1!E29</f>
+      <c r="A30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
+      <c r="A31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24">
+      <c r="A32" t="s">
         <v>50</v>
-      </c>
-      <c r="Q30" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="R30" t="s">
-        <v>37</v>
-      </c>
-      <c r="S30" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="T30">
-        <f>Sheet1!F29</f>
-        <v>60</v>
-      </c>
-      <c r="U30" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="V30" t="s">
-        <v>38</v>
-      </c>
-      <c r="X30">
-        <f t="shared" si="8"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24">
-      <c r="A31" t="str">
-        <f>Sheet1!A30</f>
-        <v xml:space="preserve">Pathways 0.75 </v>
-      </c>
-      <c r="B31" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="D31">
-        <f>Sheet1!B30</f>
-        <v>150</v>
-      </c>
-      <c r="E31" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F31" t="s">
-        <v>37</v>
-      </c>
-      <c r="G31" t="str">
-        <f t="shared" si="0"/>
-        <v>{\bf</v>
-      </c>
-      <c r="H31">
-        <f>Sheet1!C30</f>
-        <v>60</v>
-      </c>
-      <c r="I31" t="str">
-        <f t="shared" si="1"/>
-        <v>}</v>
-      </c>
-      <c r="J31" t="s">
-        <v>37</v>
-      </c>
-      <c r="K31" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L31">
-        <f>Sheet1!D30</f>
-        <v>40</v>
-      </c>
-      <c r="M31" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="N31" t="s">
-        <v>37</v>
-      </c>
-      <c r="O31" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="P31">
-        <f>Sheet1!E30</f>
-        <v>40</v>
-      </c>
-      <c r="Q31" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="R31" t="s">
-        <v>37</v>
-      </c>
-      <c r="S31" t="str">
-        <f t="shared" si="6"/>
-        <v>{\bf</v>
-      </c>
-      <c r="T31">
-        <f>Sheet1!F30</f>
-        <v>60</v>
-      </c>
-      <c r="U31" t="str">
-        <f t="shared" si="7"/>
-        <v>}</v>
-      </c>
-      <c r="V31" t="s">
-        <v>38</v>
-      </c>
-      <c r="X31">
-        <f t="shared" si="8"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24">
-      <c r="A32" t="str">
-        <f>Sheet1!A31</f>
-        <v xml:space="preserve">Pathways 1.0 </v>
-      </c>
-      <c r="B32" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="D32">
-        <f>Sheet1!B31</f>
-        <v>170</v>
-      </c>
-      <c r="E32" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F32" t="s">
-        <v>37</v>
-      </c>
-      <c r="G32" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H32">
-        <f>Sheet1!C31</f>
-        <v>50</v>
-      </c>
-      <c r="I32" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J32" t="s">
-        <v>37</v>
-      </c>
-      <c r="K32" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L32">
-        <f>Sheet1!D31</f>
-        <v>60</v>
-      </c>
-      <c r="M32" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="N32" t="s">
-        <v>37</v>
-      </c>
-      <c r="O32" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="P32">
-        <f>Sheet1!E31</f>
-        <v>60</v>
-      </c>
-      <c r="Q32" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="R32" t="s">
-        <v>37</v>
-      </c>
-      <c r="S32" t="str">
-        <f t="shared" si="6"/>
-        <v>{\bf</v>
-      </c>
-      <c r="T32">
-        <f>Sheet1!F31</f>
-        <v>70</v>
-      </c>
-      <c r="U32" t="str">
-        <f t="shared" si="7"/>
-        <v>}</v>
-      </c>
-      <c r="V32" t="s">
-        <v>38</v>
-      </c>
-      <c r="W32" t="s">
-        <v>39</v>
-      </c>
-      <c r="X32">
-        <f t="shared" si="8"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24">
-      <c r="A33" t="str">
-        <f>Sheet1!A32</f>
-        <v xml:space="preserve">Pathways </v>
-      </c>
-      <c r="B33" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="D33">
-        <f>SUM(D27:D32)</f>
-        <v>870</v>
-      </c>
-      <c r="E33" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F33" t="s">
-        <v>37</v>
-      </c>
-      <c r="G33" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H33">
-        <f>SUM(H27:H32)</f>
-        <v>320</v>
-      </c>
-      <c r="I33" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J33" t="s">
-        <v>37</v>
-      </c>
-      <c r="K33" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L33">
-        <f>SUM(L27:L32)</f>
-        <v>290</v>
-      </c>
-      <c r="M33" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="N33" t="s">
-        <v>37</v>
-      </c>
-      <c r="O33" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="P33">
-        <f>SUM(P27:P32)</f>
-        <v>280</v>
-      </c>
-      <c r="Q33" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="R33" t="s">
-        <v>37</v>
-      </c>
-      <c r="S33" t="str">
-        <f t="shared" si="6"/>
-        <v>{\bf</v>
-      </c>
-      <c r="T33">
-        <f>SUM(T27:T32)</f>
-        <v>340</v>
-      </c>
-      <c r="U33" t="str">
-        <f t="shared" si="7"/>
-        <v>}</v>
-      </c>
-      <c r="V33" t="s">
-        <v>38</v>
-      </c>
-      <c r="W33" t="s">
-        <v>2</v>
-      </c>
-      <c r="X33">
-        <f t="shared" si="8"/>
-        <v>340</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24">
-      <c r="A34" t="str">
-        <f>Sheet1!A33</f>
-        <v>Total</v>
-      </c>
-      <c r="B34" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="D34">
-        <f>D33+D26+D21+D5</f>
-        <v>2011</v>
-      </c>
-      <c r="E34" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="F34" t="s">
-        <v>37</v>
-      </c>
-      <c r="G34" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="H34">
-        <f>H33+H26+H21+H5</f>
-        <v>1214</v>
-      </c>
-      <c r="I34" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J34" t="s">
-        <v>37</v>
-      </c>
-      <c r="K34" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="L34">
-        <f>L33+L26+L21+L5</f>
-        <v>1182</v>
-      </c>
-      <c r="M34" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="N34" t="s">
-        <v>37</v>
-      </c>
-      <c r="O34" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="P34">
-        <f>P33+P26+P21+P5</f>
-        <v>1176</v>
-      </c>
-      <c r="Q34" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="R34" t="s">
-        <v>37</v>
-      </c>
-      <c r="S34" t="str">
-        <f t="shared" si="6"/>
-        <v>{\bf</v>
-      </c>
-      <c r="T34">
-        <f>T33+T26+T21+T5</f>
-        <v>1320</v>
-      </c>
-      <c r="U34" t="str">
-        <f t="shared" si="7"/>
-        <v>}</v>
-      </c>
-      <c r="V34" t="s">
-        <v>38</v>
-      </c>
-      <c r="X34">
-        <f t="shared" si="8"/>
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24">
-      <c r="A35" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24">
-      <c r="A36" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24">
-      <c r="A37" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
